--- a/Zuordnungstabelle.xlsx
+++ b/Zuordnungstabelle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Krezdorn\Desktop\KYSA_v203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Krezdorn\Desktop\KYSA_v301\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Girokonto" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
 geschäfte</t>
   </si>
   <si>
-    <t>Lange Kategorienamen können per erzwungenen Zeilenumbruch (Strg+Enter) in den Diagramm umgebrochen dargestellt werden.</t>
-  </si>
-  <si>
     <t>telefonicagermany</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>dbbahna-nr</t>
+  </si>
+  <si>
+    <t>Lange Kategorienamen können per erzwungenen Zeilenumbruch (Alt+Enter) in den Diagramm umgebrochen dargestellt werden.</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,282 +652,282 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
         <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -961,34 +961,34 @@
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
